--- a/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{995C5735-D7E6-4563-946C-08F379A565F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4E591E-7F63-4CD4-89C8-03F601976042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A832D65E-3437-4E02-A4AE-3BD89BD795EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F53175D1-E107-4BBC-99C2-A707BAF8D2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="689">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -88,1975 +88,2002 @@
     <t>60,67%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,44%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
   </si>
   <si>
     <t>8,04%</t>
@@ -2489,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A92048F-5460-4A7E-BB05-E2ADED754142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520A8D00-1D9C-45F1-A0A4-00035C6DC8F8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3518,10 +3545,10 @@
         <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3530,13 +3557,13 @@
         <v>39701</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -3545,13 +3572,13 @@
         <v>73131</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3634,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3619,13 +3646,13 @@
         <v>101257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>112</v>
@@ -3634,13 +3661,13 @@
         <v>117791</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>209</v>
@@ -3649,13 +3676,13 @@
         <v>219049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3697,13 @@
         <v>140774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -3685,13 +3712,13 @@
         <v>135632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -3700,13 +3727,13 @@
         <v>276406</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3748,13 @@
         <v>31950</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3736,13 +3763,13 @@
         <v>26608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3852,7 +3879,7 @@
         <v>517</v>
       </c>
       <c r="N28" s="7">
-        <v>563668</v>
+        <v>563667</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>161</v>
@@ -3912,7 +3939,7 @@
         <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3954,13 @@
         <v>87765</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -3942,13 +3969,13 @@
         <v>105173</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -3957,13 +3984,13 @@
         <v>192938</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4032,7 @@
         <v>1252</v>
       </c>
       <c r="N31" s="7">
-        <v>1354708</v>
+        <v>1354707</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>42</v>
@@ -4019,7 +4046,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4058,13 @@
         <v>547515</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>523</v>
@@ -4046,13 +4073,13 @@
         <v>566277</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>1029</v>
@@ -4061,13 +4088,13 @@
         <v>1113792</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4109,13 @@
         <v>177584</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H33" s="7">
         <v>184</v>
@@ -4097,13 +4124,13 @@
         <v>203933</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M33" s="7">
         <v>344</v>
@@ -4112,13 +4139,13 @@
         <v>381518</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4160,13 @@
         <v>52970</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>49</v>
@@ -4148,13 +4175,13 @@
         <v>52459</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -4163,13 +4190,13 @@
         <v>105429</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,10 +4264,10 @@
         <v>1796962</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>211</v>
@@ -4375,7 +4402,7 @@
         <v>234</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4458,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AE21C2-710C-4D22-93ED-A4FFFA9461C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B57C0-E8ED-44FF-A926-B64AFDA8AD2B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4472,7 +4499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4579,13 +4606,13 @@
         <v>139974</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -4711,13 +4738,13 @@
         <v>118394</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4812,13 @@
         <v>313882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4800,13 +4827,13 @@
         <v>319581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>587</v>
@@ -4815,13 +4842,13 @@
         <v>633463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4863,13 @@
         <v>132482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -4851,13 +4878,13 @@
         <v>131408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -4866,13 +4893,13 @@
         <v>263890</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4914,13 @@
         <v>55195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4902,13 +4929,13 @@
         <v>70083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -4917,13 +4944,13 @@
         <v>125278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5018,13 @@
         <v>214173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -5006,13 +5033,13 @@
         <v>239522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>465</v>
@@ -5021,13 +5048,13 @@
         <v>453696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5069,13 @@
         <v>92240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5057,13 +5084,13 @@
         <v>85935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -5072,13 +5099,13 @@
         <v>178174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5120,13 @@
         <v>12152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5108,13 +5135,13 @@
         <v>9950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5123,13 +5150,13 @@
         <v>22102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5224,13 @@
         <v>262839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -5212,13 +5239,13 @@
         <v>269474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -5227,13 +5254,13 @@
         <v>532313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5275,13 @@
         <v>62768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5263,13 +5290,13 @@
         <v>66223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -5278,13 +5305,13 @@
         <v>128991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5326,13 @@
         <v>39695</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5314,13 +5341,13 @@
         <v>49546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -5329,13 +5356,13 @@
         <v>89241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5430,13 @@
         <v>127475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>156</v>
@@ -5418,13 +5445,13 @@
         <v>152064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>286</v>
@@ -5433,13 +5460,13 @@
         <v>279538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5481,13 @@
         <v>66156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -5469,13 +5496,13 @@
         <v>44531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -5487,10 +5514,10 @@
         <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5532,13 @@
         <v>17591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5520,13 +5547,13 @@
         <v>21993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -5535,13 +5562,13 @@
         <v>39584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,7 +5624,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5609,13 +5636,13 @@
         <v>189335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -5624,13 +5651,13 @@
         <v>200323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>380</v>
@@ -5639,13 +5666,13 @@
         <v>389658</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5687,13 @@
         <v>51131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5675,13 +5702,13 @@
         <v>48477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -5690,13 +5717,13 @@
         <v>99607</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5738,13 @@
         <v>18628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -5726,13 +5753,13 @@
         <v>23280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -5741,13 +5768,13 @@
         <v>41908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5842,13 @@
         <v>340054</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>319</v>
@@ -5830,13 +5857,13 @@
         <v>339985</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>619</v>
@@ -5845,13 +5872,13 @@
         <v>680038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5893,13 @@
         <v>222875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>206</v>
@@ -5881,13 +5908,13 @@
         <v>217171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -5896,13 +5923,13 @@
         <v>440047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5944,13 @@
         <v>92717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>262</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -5932,13 +5959,13 @@
         <v>129868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>200</v>
@@ -5947,13 +5974,13 @@
         <v>222585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6036,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6021,13 +6048,13 @@
         <v>621448</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -6036,13 +6063,13 @@
         <v>663054</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>1204</v>
@@ -6051,13 +6078,13 @@
         <v>1284501</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6099,13 @@
         <v>108506</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="H33" s="7">
         <v>109</v>
@@ -6087,13 +6114,13 @@
         <v>120155</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>216</v>
@@ -6102,13 +6129,13 @@
         <v>228662</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>433</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6150,13 @@
         <v>48629</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -6138,13 +6165,13 @@
         <v>39084</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>82</v>
@@ -6153,13 +6180,13 @@
         <v>87713</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6254,13 @@
         <v>2209179</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>2182</v>
@@ -6242,13 +6269,13 @@
         <v>2308110</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>4294</v>
@@ -6257,13 +6284,13 @@
         <v>4517288</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6305,13 @@
         <v>834200</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>762</v>
@@ -6293,13 +6320,13 @@
         <v>806656</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M37" s="7">
         <v>1548</v>
@@ -6308,13 +6335,13 @@
         <v>1640856</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6356,13 @@
         <v>335325</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="H38" s="7">
         <v>377</v>
@@ -6344,13 +6371,13 @@
         <v>411480</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M38" s="7">
         <v>695</v>
@@ -6359,10 +6386,10 @@
         <v>746805</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>464</v>
@@ -6392,7 +6419,7 @@
         <v>3321</v>
       </c>
       <c r="I39" s="7">
-        <v>3526246</v>
+        <v>3526245</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>42</v>
@@ -6421,7 +6448,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6445,7 +6472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFFB434-7B1A-4443-9B13-33E1D0A763E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FD5E0D-92B3-4D1F-AB68-C7AC8140C4C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6462,7 +6489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6569,13 +6596,13 @@
         <v>242307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>513</v>
@@ -6584,13 +6611,13 @@
         <v>259117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>819</v>
@@ -6599,13 +6626,13 @@
         <v>501423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6647,13 @@
         <v>13625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -6635,13 +6662,13 @@
         <v>7919</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6650,13 +6677,13 @@
         <v>21544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6698,13 @@
         <v>4366</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6686,13 +6713,13 @@
         <v>4367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6701,13 +6728,13 @@
         <v>8733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6802,13 @@
         <v>419891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -6790,13 +6817,13 @@
         <v>444339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>880</v>
@@ -6805,13 +6832,13 @@
         <v>864231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6853,13 @@
         <v>75691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -6844,10 +6871,10 @@
         <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>170</v>
@@ -6856,13 +6883,13 @@
         <v>162889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>256</v>
+        <v>511</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>507</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6904,13 @@
         <v>23715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -6892,13 +6919,13 @@
         <v>23029</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6907,13 +6934,13 @@
         <v>46744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +7008,13 @@
         <v>228453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H12" s="7">
         <v>413</v>
@@ -6996,13 +7023,13 @@
         <v>287573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M12" s="7">
         <v>672</v>
@@ -7011,13 +7038,13 @@
         <v>516025</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7059,13 @@
         <v>53732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -7047,13 +7074,13 @@
         <v>47556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -7062,13 +7089,13 @@
         <v>101288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7110,13 @@
         <v>38436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -7098,13 +7125,13 @@
         <v>38155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -7113,13 +7140,13 @@
         <v>76591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7214,13 @@
         <v>232174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>417</v>
@@ -7202,13 +7229,13 @@
         <v>308943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>613</v>
@@ -7217,13 +7244,13 @@
         <v>541117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7265,13 @@
         <v>45076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -7253,13 +7280,13 @@
         <v>68385</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>151</v>
@@ -7271,10 +7298,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7316,13 @@
         <v>44990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -7304,13 +7331,13 @@
         <v>50567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -7319,13 +7346,13 @@
         <v>95557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>568</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7420,13 @@
         <v>157462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
         <v>401</v>
@@ -7408,13 +7435,13 @@
         <v>209912</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>626</v>
@@ -7423,13 +7450,13 @@
         <v>367373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7471,13 @@
         <v>33082</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>578</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -7459,13 +7486,13 @@
         <v>45280</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -7474,13 +7501,13 @@
         <v>78363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7522,13 @@
         <v>6204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7510,13 +7537,13 @@
         <v>4321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7525,13 +7552,13 @@
         <v>10525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,7 +7614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7599,13 +7626,13 @@
         <v>196899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>333</v>
@@ -7614,13 +7641,13 @@
         <v>203204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M24" s="7">
         <v>597</v>
@@ -7629,13 +7656,13 @@
         <v>400103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7677,13 @@
         <v>48917</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -7665,13 +7692,13 @@
         <v>32098</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -7680,13 +7707,13 @@
         <v>81015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7728,13 @@
         <v>31407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -7716,13 +7743,13 @@
         <v>40320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>615</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -7731,13 +7758,13 @@
         <v>71727</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7832,13 @@
         <v>374909</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="H28" s="7">
         <v>573</v>
@@ -7820,13 +7847,13 @@
         <v>513108</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>368</v>
       </c>
       <c r="M28" s="7">
         <v>932</v>
@@ -7835,13 +7862,13 @@
         <v>888017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7883,13 @@
         <v>144202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -7871,13 +7898,13 @@
         <v>145956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="M29" s="7">
         <v>337</v>
@@ -7886,13 +7913,13 @@
         <v>290158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7934,13 @@
         <v>108324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>632</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>625</v>
+        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>182</v>
@@ -7922,13 +7949,13 @@
         <v>144040</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>285</v>
@@ -7937,13 +7964,13 @@
         <v>252364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +8026,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8011,13 +8038,13 @@
         <v>641389</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="H32" s="7">
         <v>757</v>
@@ -8026,13 +8053,13 @@
         <v>614767</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="M32" s="7">
         <v>1303</v>
@@ -8041,13 +8068,13 @@
         <v>1256155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8089,13 @@
         <v>168978</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="H33" s="7">
         <v>216</v>
@@ -8077,13 +8104,13 @@
         <v>180030</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>304</v>
+        <v>652</v>
       </c>
       <c r="M33" s="7">
         <v>382</v>
@@ -8092,13 +8119,13 @@
         <v>349007</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8140,13 @@
         <v>49062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="H34" s="7">
         <v>88</v>
@@ -8128,13 +8155,13 @@
         <v>73004</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -8143,13 +8170,13 @@
         <v>122066</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8244,13 @@
         <v>2493482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>657</v>
+        <v>293</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="H36" s="7">
         <v>3983</v>
@@ -8232,13 +8259,13 @@
         <v>2840962</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M36" s="7">
         <v>6442</v>
@@ -8247,13 +8274,13 @@
         <v>5334444</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8295,13 @@
         <v>583303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="H37" s="7">
         <v>858</v>
@@ -8283,13 +8310,13 @@
         <v>614422</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>429</v>
+        <v>677</v>
       </c>
       <c r="M37" s="7">
         <v>1455</v>
@@ -8298,13 +8325,13 @@
         <v>1197725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8346,13 @@
         <v>306503</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>681</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="H38" s="7">
         <v>521</v>
@@ -8334,13 +8361,13 @@
         <v>377803</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M38" s="7">
         <v>837</v>
@@ -8349,13 +8376,13 @@
         <v>684306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8438,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4E591E-7F63-4CD4-89C8-03F601976042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6AED73-160A-4B62-A66F-9A8574BF5D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F53175D1-E107-4BBC-99C2-A707BAF8D2C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B5A7F72-5E4B-4ED6-A930-C8BEBD18E597}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="691">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -88,82 +88,82 @@
     <t>60,67%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -175,1936 +175,1942 @@
     <t>36,88%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
     <t>17,52%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520A8D00-1D9C-45F1-A0A4-00035C6DC8F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BE3364-4124-48A8-B760-E43E6517950B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2849,7 +2855,7 @@
         <v>579</v>
       </c>
       <c r="N8" s="7">
-        <v>625668</v>
+        <v>625667</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
@@ -3002,7 +3008,7 @@
         <v>946</v>
       </c>
       <c r="N11" s="7">
-        <v>1022141</v>
+        <v>1022140</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
@@ -3730,10 +3736,10 @@
         <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3754,13 @@
         <v>31950</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3763,13 +3769,13 @@
         <v>26608</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3784,7 +3790,7 @@
         <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3846,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3858,13 @@
         <v>282068</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>257</v>
@@ -3867,28 +3873,28 @@
         <v>281600</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>517</v>
       </c>
       <c r="N28" s="7">
-        <v>563667</v>
+        <v>563668</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3909,13 @@
         <v>291970</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -3918,13 +3924,13 @@
         <v>306133</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>557</v>
@@ -3933,13 +3939,13 @@
         <v>598102</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3960,13 @@
         <v>87765</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -3969,13 +3975,13 @@
         <v>105173</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -3984,13 +3990,13 @@
         <v>192938</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4038,7 @@
         <v>1252</v>
       </c>
       <c r="N31" s="7">
-        <v>1354707</v>
+        <v>1354708</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>42</v>
@@ -4046,7 +4052,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4058,13 +4064,13 @@
         <v>547515</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>523</v>
@@ -4073,13 +4079,13 @@
         <v>566277</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>1029</v>
@@ -4088,13 +4094,13 @@
         <v>1113792</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4115,13 @@
         <v>177584</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H33" s="7">
         <v>184</v>
@@ -4124,13 +4130,13 @@
         <v>203933</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M33" s="7">
         <v>344</v>
@@ -4139,13 +4145,13 @@
         <v>381518</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>52970</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>49</v>
@@ -4175,13 +4181,13 @@
         <v>52459</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -4190,13 +4196,13 @@
         <v>105429</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4270,13 @@
         <v>1796962</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>1703</v>
@@ -4279,13 +4285,13 @@
         <v>1840410</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>3376</v>
@@ -4294,13 +4300,13 @@
         <v>3637371</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4321,13 @@
         <v>1189930</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>1130</v>
@@ -4330,13 +4336,13 @@
         <v>1217933</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M37" s="7">
         <v>2247</v>
@@ -4345,13 +4351,13 @@
         <v>2407863</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4372,13 @@
         <v>431493</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H38" s="7">
         <v>452</v>
@@ -4381,13 +4387,13 @@
         <v>484758</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M38" s="7">
         <v>863</v>
@@ -4396,13 +4402,13 @@
         <v>916252</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4464,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4482,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B57C0-E8ED-44FF-A926-B64AFDA8AD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE82F62A-5A2D-416D-A6DD-5FB6E1DC004B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4499,7 +4505,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4606,13 +4612,13 @@
         <v>139974</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>124</v>
@@ -4621,13 +4627,13 @@
         <v>124107</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>252</v>
@@ -4636,13 +4642,13 @@
         <v>264081</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4663,13 @@
         <v>98043</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -4672,13 +4678,13 @@
         <v>92756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -4687,13 +4693,13 @@
         <v>190799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4714,13 @@
         <v>50718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H6" s="7">
         <v>60</v>
@@ -4723,13 +4729,13 @@
         <v>67675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>104</v>
@@ -4738,13 +4744,13 @@
         <v>118394</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4818,13 @@
         <v>313882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4827,13 +4833,13 @@
         <v>319581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>587</v>
@@ -4842,13 +4848,13 @@
         <v>633463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4869,13 @@
         <v>132482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -4878,13 +4884,13 @@
         <v>131408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -4893,13 +4899,13 @@
         <v>263890</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4920,13 @@
         <v>55195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4929,13 +4935,13 @@
         <v>70083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -4944,13 +4950,13 @@
         <v>125278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5024,13 @@
         <v>214173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -5033,13 +5039,13 @@
         <v>239522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>465</v>
@@ -5048,13 +5054,13 @@
         <v>453696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5075,13 @@
         <v>92240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5084,13 +5090,13 @@
         <v>85935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -5099,13 +5105,13 @@
         <v>178174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>12152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5135,13 +5141,13 @@
         <v>9950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -5150,13 +5156,13 @@
         <v>22102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>262839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -5239,13 +5245,13 @@
         <v>269474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -5254,13 +5260,13 @@
         <v>532313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5281,13 @@
         <v>62768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5290,13 +5296,13 @@
         <v>66223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -5305,13 +5311,13 @@
         <v>128991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5332,13 @@
         <v>39695</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -5341,13 +5347,13 @@
         <v>49546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -5356,13 +5362,13 @@
         <v>89241</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5436,13 @@
         <v>127475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>156</v>
@@ -5445,13 +5451,13 @@
         <v>152064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>286</v>
@@ -5460,13 +5466,13 @@
         <v>279538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5487,13 @@
         <v>66156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -5496,13 +5502,13 @@
         <v>44531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -5511,13 +5517,13 @@
         <v>110686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5538,13 @@
         <v>17591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5547,13 +5553,13 @@
         <v>21993</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -5562,13 +5568,13 @@
         <v>39584</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5642,13 @@
         <v>189335</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -5651,13 +5657,13 @@
         <v>200323</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>380</v>
@@ -5666,13 +5672,13 @@
         <v>389658</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5693,13 @@
         <v>51131</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5702,13 +5708,13 @@
         <v>48477</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -5717,13 +5723,13 @@
         <v>99607</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5744,13 @@
         <v>18628</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -5753,13 +5759,13 @@
         <v>23280</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -5768,13 +5774,13 @@
         <v>41908</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,7 +5822,7 @@
         <v>517</v>
       </c>
       <c r="N27" s="7">
-        <v>531173</v>
+        <v>531174</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>42</v>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5842,13 +5848,13 @@
         <v>340054</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>319</v>
@@ -5857,13 +5863,13 @@
         <v>339985</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>619</v>
@@ -5872,13 +5878,13 @@
         <v>680038</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5899,13 @@
         <v>222875</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>206</v>
@@ -5908,13 +5914,13 @@
         <v>217171</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>402</v>
@@ -5923,13 +5929,13 @@
         <v>440047</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5950,13 @@
         <v>92717</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -6036,7 +6042,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6114,13 +6120,13 @@
         <v>120155</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>216</v>
@@ -6129,13 +6135,13 @@
         <v>228662</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6156,13 @@
         <v>48629</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -6171,7 +6177,7 @@
         <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>82</v>
@@ -6180,13 +6186,13 @@
         <v>87713</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6260,13 @@
         <v>2209179</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>2182</v>
@@ -6269,13 +6275,13 @@
         <v>2308110</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>4294</v>
@@ -6284,7 +6290,7 @@
         <v>4517288</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>269</v>
+        <v>449</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>450</v>
@@ -6389,10 +6395,10 @@
         <v>467</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,7 +6425,7 @@
         <v>3321</v>
       </c>
       <c r="I39" s="7">
-        <v>3526245</v>
+        <v>3526246</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>42</v>
@@ -6448,7 +6454,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6472,7 +6478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FD5E0D-92B3-4D1F-AB68-C7AC8140C4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8E2D43-4579-4432-90FD-63D5CA431797}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6659,7 @@
         <v>480</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -6662,13 +6668,13 @@
         <v>7919</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6677,13 +6683,13 @@
         <v>21544</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6704,13 @@
         <v>4366</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6713,13 +6719,13 @@
         <v>4367</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6728,13 +6734,13 @@
         <v>8733</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6808,13 @@
         <v>419891</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>576</v>
@@ -6817,13 +6823,13 @@
         <v>444339</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>880</v>
@@ -6832,13 +6838,13 @@
         <v>864231</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6859,13 @@
         <v>75691</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -6871,10 +6877,10 @@
         <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>170</v>
@@ -6883,13 +6889,13 @@
         <v>162889</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,10 +7083,10 @@
         <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -7089,13 +7095,13 @@
         <v>101288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7116,13 @@
         <v>38436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -7146,7 +7152,7 @@
         <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7220,13 @@
         <v>232174</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>417</v>
@@ -7229,13 +7235,13 @@
         <v>308943</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>613</v>
@@ -7244,13 +7250,13 @@
         <v>541117</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7271,13 @@
         <v>45076</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -7280,13 +7286,13 @@
         <v>68385</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>151</v>
@@ -7298,10 +7304,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,7 +7322,7 @@
         <v>44990</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>562</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>563</v>
@@ -7426,7 +7432,7 @@
         <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>401</v>
@@ -7435,13 +7441,13 @@
         <v>209912</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>626</v>
@@ -7450,13 +7456,13 @@
         <v>367373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7477,13 @@
         <v>33082</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -7486,13 +7492,13 @@
         <v>45280</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -7501,13 +7507,13 @@
         <v>78363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>585</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7528,13 @@
         <v>6204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7537,13 +7543,13 @@
         <v>4321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7552,13 +7558,13 @@
         <v>10525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7632,13 @@
         <v>196899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H24" s="7">
         <v>333</v>
@@ -7641,13 +7647,13 @@
         <v>203204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M24" s="7">
         <v>597</v>
@@ -7656,13 +7662,13 @@
         <v>400103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,7 +7683,7 @@
         <v>48917</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>602</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>603</v>
@@ -7710,10 +7716,10 @@
         <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>609</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>610</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7734,13 @@
         <v>31407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -7743,13 +7749,13 @@
         <v>40320</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -7758,13 +7764,13 @@
         <v>71727</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7826,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7832,13 +7838,13 @@
         <v>374909</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H28" s="7">
         <v>573</v>
@@ -7847,13 +7853,13 @@
         <v>513108</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M28" s="7">
         <v>932</v>
@@ -7862,13 +7868,13 @@
         <v>888017</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>624</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7889,13 @@
         <v>144202</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -7898,13 +7904,13 @@
         <v>145956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M29" s="7">
         <v>337</v>
@@ -7913,13 +7919,13 @@
         <v>290158</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>608</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>280</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,13 +7940,13 @@
         <v>108324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>332</v>
+        <v>635</v>
       </c>
       <c r="H30" s="7">
         <v>182</v>
@@ -7949,13 +7955,13 @@
         <v>144040</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M30" s="7">
         <v>285</v>
@@ -7964,13 +7970,13 @@
         <v>252364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>508</v>
+        <v>640</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,7 +8032,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8038,13 +8044,13 @@
         <v>641389</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H32" s="7">
         <v>757</v>
@@ -8053,13 +8059,13 @@
         <v>614767</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>643</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>1303</v>
@@ -8068,13 +8074,13 @@
         <v>1256155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8095,13 @@
         <v>168978</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H33" s="7">
         <v>216</v>
@@ -8104,13 +8110,13 @@
         <v>180030</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M33" s="7">
         <v>382</v>
@@ -8119,13 +8125,13 @@
         <v>349007</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8146,13 @@
         <v>49062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H34" s="7">
         <v>88</v>
@@ -8155,13 +8161,13 @@
         <v>73004</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>663</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>660</v>
+        <v>465</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -8170,13 +8176,13 @@
         <v>122066</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>662</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8250,13 @@
         <v>2493482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>293</v>
+        <v>667</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="H36" s="7">
         <v>3983</v>
@@ -8259,13 +8265,13 @@
         <v>2840962</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M36" s="7">
         <v>6442</v>
@@ -8274,13 +8280,13 @@
         <v>5334444</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8301,13 @@
         <v>583303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H37" s="7">
         <v>858</v>
@@ -8310,13 +8316,13 @@
         <v>614422</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>676</v>
+        <v>332</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M37" s="7">
         <v>1455</v>
@@ -8325,13 +8331,13 @@
         <v>1197725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8352,13 @@
         <v>306503</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>683</v>
+        <v>285</v>
       </c>
       <c r="H38" s="7">
         <v>521</v>
@@ -8361,13 +8367,13 @@
         <v>377803</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M38" s="7">
         <v>837</v>
@@ -8376,13 +8382,13 @@
         <v>684306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8444,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
